--- a/uploads/Decision Tree Classfier - Credit Card Transaction Anomaly Detection/Decision Tree Classfier - Credit Card Transaction Anomaly Detection_custom_ml_report.xlsx
+++ b/uploads/Decision Tree Classfier - Credit Card Transaction Anomaly Detection/Decision Tree Classfier - Credit Card Transaction Anomaly Detection_custom_ml_report.xlsx
@@ -15037,7 +15037,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-07-03T08:06:29.590783</t>
+          <t>2025-07-25T12:54:26.317417</t>
         </is>
       </c>
     </row>
